--- a/biology/Botanique/Vin_français_bénéficiant_d'une_AOC/Vin_français_bénéficiant_d'une_AOC.xlsx
+++ b/biology/Botanique/Vin_français_bénéficiant_d'une_AOC/Vin_français_bénéficiant_d'une_AOC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vin_fran%C3%A7ais_b%C3%A9n%C3%A9ficiant_d%27une_AOC</t>
+          <t>Vin_français_bénéficiant_d'une_AOC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un vin français bénéficiant d'une AOC est un vin produit en France pour lequel une demande d'AOC[1], accompagnée d'un cahier des charges à respecter, a obtenu un avis favorable de l'INAO[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un vin français bénéficiant d'une AOC est un vin produit en France pour lequel une demande d'AOC, accompagnée d'un cahier des charges à respecter, a obtenu un avis favorable de l'INAO.
 Après homologation du cahier des charges, ce vin est également classé dans la catégorie AOP, équivalente au niveau européen.
 Sur l'étiquette du produit, le nom de l'appellation peut être suivi, ou plus rarement précédé, par une ou plusieurs mentions complémentaires. Ces mentions peuvent indiquer les principaux cépages utilisés, une zone précise de récolte des raisins, une méthode particulière de récolte, de vinification ou de vieillissement, une gamme de teneur en sucre, un classement en cru, etc.
-Une cartographie au niveau parcellaire des zones de récolte des raisins pour les vins sous AOC est actuellement entreprise par l'INAO et l'IGN[3]. La carte, encore incomplète, pour les vins relevant de chaque bassin viticole[4] est disponible sur le site officiel Géoportail[5]. 
-Les appellations de vins français ne se trouvant pas dans la liste ci-dessous sont classés en vins sous IGP[6] ou en vins sans indication géographique[7]. Les catégories « vins de qualité produits dans des régions déterminées » et « vins de table (au sens européen) » n'existent plus depuis le 31 juillet 2009[8]. Les catégories « appellation d'origine vin délimité de qualité supérieure », « vins de pays » et « vins de table (au sens français) » n'existent plus depuis le 31 décembre 2011[9].
+Une cartographie au niveau parcellaire des zones de récolte des raisins pour les vins sous AOC est actuellement entreprise par l'INAO et l'IGN. La carte, encore incomplète, pour les vins relevant de chaque bassin viticole est disponible sur le site officiel Géoportail. 
+Les appellations de vins français ne se trouvant pas dans la liste ci-dessous sont classés en vins sous IGP ou en vins sans indication géographique. Les catégories « vins de qualité produits dans des régions déterminées » et « vins de table (au sens européen) » n'existent plus depuis le 31 juillet 2009. Les catégories « appellation d'origine vin délimité de qualité supérieure », « vins de pays » et « vins de table (au sens français) » n'existent plus depuis le 31 décembre 2011.
 Les vignobles de cette liste sont ceux du Portail Wikipédia de la vigne et du vin, mais le terme « vignoble » a ici un sens général et ne signifierait aucunement une sorte d'organigramme des vignobles. Par exemple le vignoble du Val de Loire est constitué de vignobles plus petits, comme le vignoble d'Anjou ou le vignoble de Touraine. À leur tour ces derniers sont constitués d'autres vignobles encore plus petits ou tout simplement des territoires correspondant aux appellations. Ces mêmes territoires peuvent être appelés à leur tour des vignobles, sans que cela ait un sens officiel.
 </t>
         </is>
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vin_fran%C3%A7ais_b%C3%A9n%C3%A9ficiant_d%27une_AOC</t>
+          <t>Vin_français_bénéficiant_d'une_AOC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,9 +528,11 @@
           <t>Liste des vins français sous AOC et AOP</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette liste des vins français sous AOC est constituée des 313 appellations de produits référencés comme tels par l'INAO[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette liste des vins français sous AOC est constituée des 313 appellations de produits référencés comme tels par l'INAO.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vin_fran%C3%A7ais_b%C3%A9n%C3%A9ficiant_d%27une_AOC</t>
+          <t>Vin_français_bénéficiant_d'une_AOC</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,17 +561,19 @@
           <t>Classement des crus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les vins français sous AOC disposent d'un système interne de classement permettant à certains d'entre eux d'apposer la mention « Cru » sur l'étiquette du produit.
 Le classement des crus n'est cependant pas homogène au niveau national, ni même parfois au niveau régional :
-pour les vins effervescents, l'appellation champagne dispose des mentions complémentaires « Premier Cru » et « Grand Cru » pouvant être accordées selon les dispositions du cahier des charges de l'appellation[11].
+pour les vins effervescents, l'appellation champagne dispose des mentions complémentaires « Premier Cru » et « Grand Cru » pouvant être accordées selon les dispositions du cahier des charges de l'appellation.
 pour les vins tranquilles à l'exception des vins du Bordelais, les crus sont donnés dans le tableau ci-dessous. Le système de classement pourrait cependant être plus homogène en adoptant un unique usage pour chaque type de cru.
 pour les vins tranquilles du Bordelais, les différents classements sont difficilement compatibles entre eux et avec ceux des autres régions :
-le nom de l'appellation saint-émilion-grand-cru apparaît sur l'étiquette des vins de cette appellation. Le classement des vins de l'appellation saint-émilion-grand-cru contient les subdivisions « Premier Grand Cru Classé (distinction A) », « Premier Grand Cru Classé » et « Grand Cru Classé »[12]. La mention « Premier Grand Cru Classé » ou « Grand Cru Classé » peut être apposée sur l'étiquette des vins classés.
+le nom de l'appellation saint-émilion-grand-cru apparaît sur l'étiquette des vins de cette appellation. Le classement des vins de l'appellation saint-émilion-grand-cru contient les subdivisions « Premier Grand Cru Classé (distinction A) », « Premier Grand Cru Classé » et « Grand Cru Classé ». La mention « Premier Grand Cru Classé » ou « Grand Cru Classé » peut être apposée sur l'étiquette des vins classés.
 le classement des vins de Graves inclut exclusivement des vins de l'appellation pessac-léognan. La mention « Cru Classé de Graves » peut être apposée sur l'étiquette des vins classés.
-le classement des crus artisans concerne les vins du vignoble du Médoc[13]. La mention « Cru Artisan » peut être apposée sur l'étiquette des vins classés.
-le classement des crus bourgeois concerne les vins du vignoble du Médoc[14]. La mention « Cru Bourgeois » peut être apposée sur l'étiquette des vins classés.
+le classement des crus artisans concerne les vins du vignoble du Médoc. La mention « Cru Artisan » peut être apposée sur l'étiquette des vins classés.
+le classement des crus bourgeois concerne les vins du vignoble du Médoc. La mention « Cru Bourgeois » peut être apposée sur l'étiquette des vins classés.
 le classement de 1855 pour les vins rouges inclut presque exclusivement des vins du vignoble du Médoc, avec l'exception du Château Haut-Brion de l'appellation pessac-léognan. Il contient les subdivisions « Premier Cru », « Second Cru », « Troisième Cru », « Quatrième Cru » et « Cinquième Cru ». Ces subdivisions, bien que non mentionnées dans les cahiers des charges, peuvent apparaître sur les étiquettes des vins classés.
 le classement de 1855 pour les vins blancs inclut exclusivement les appellations sauternes et barsac. Il contient les subdivisions « Premier Cru Supérieur », « Premier Cru » et « Second Cru ». Ces subdivisions, bien que non mentionnées dans les cahiers des charges, peuvent apparaître sur les étiquettes des vins classés.</t>
         </is>
